--- a/kadr/kunlik_tekshiruv.xlsx
+++ b/kadr/kunlik_tekshiruv.xlsx
@@ -509,7 +509,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15198</t>
+          <t>15190</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -536,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,21 +584,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>32741</t>
+          <t>24122</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K264</t>
+          <t>8424</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>081</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -611,21 +611,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>82000</t>
+          <t>32741</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F086</t>
+          <t>K264</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D45</t>
+          <t>632</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -636,19 +636,98 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>82000</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15198</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>F086</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D45</t>
+        </is>
+      </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>42010</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>90240</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>W015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -665,7 +744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,21 +819,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20310</t>
+          <t>21120</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M205</t>
+          <t>Q159</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>598</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -767,21 +846,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20320</t>
+          <t>21120</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A717</t>
+          <t>B535</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>596</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -794,21 +873,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>32741</t>
+          <t>24122</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>K264</t>
+          <t>8424</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>081</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -821,21 +900,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>31213</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>L648</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>774</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -848,21 +927,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>82000</t>
+          <t>32741</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F086</t>
+          <t>K264</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D45</t>
+          <t>632</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -875,21 +954,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>51199</t>
+          <t>32913</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8842</t>
+          <t>R136</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>089</t>
+          <t>778</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -902,21 +981,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>85100</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9835</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>059</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -927,19 +1006,179 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>82000</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15198</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>F086</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>D45</t>
+        </is>
+      </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>51199</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8842</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>089</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>42010</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>D632</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>85100</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9835</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>059</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>90421</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>W939</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>90240</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>W015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15190</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>

--- a/kadr/kunlik_tekshiruv.xlsx
+++ b/kadr/kunlik_tekshiruv.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,21 +480,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>32741</t>
+          <t>21120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K264</t>
+          <t>Q284</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>614</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -506,20 +506,196 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>72112</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15190</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Q279</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>72112</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Q280</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>72113</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Q281</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>72113</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Q282</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>72121</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>V290</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>72122</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Q276</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>72123</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Q277</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -536,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,17 +760,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24122</t>
+          <t>21120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8424</t>
+          <t>Q284</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>081</t>
+          <t>614</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -611,17 +787,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>32741</t>
+          <t>32500</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K264</t>
+          <t>B782</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>D43</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -665,21 +841,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>42010</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D632</t>
+          <t>2275</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>548</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -690,21 +866,23 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>90240</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>61201</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>W015</t>
+          <t>V345</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>041</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -715,19 +893,189 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>72112</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15190</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Q279</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>72112</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Q280</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>72113</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Q281</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>72113</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Q282</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>72121</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>V290</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>72122</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Q276</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>72123</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Q277</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
@@ -744,7 +1092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,21 +1140,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>21120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S100</t>
+          <t>Q284</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>614</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -819,21 +1167,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21120</t>
+          <t>24113</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Q159</t>
+          <t>9011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>076</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -846,21 +1194,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21120</t>
+          <t>82000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B535</t>
+          <t>F086</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>D45</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -873,21 +1221,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24122</t>
+          <t>50099</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8424</t>
+          <t>F054</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>081</t>
+          <t>665</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -900,21 +1248,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31213</t>
+          <t>51199</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L648</t>
+          <t>8842</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>089</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -927,21 +1275,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>32741</t>
+          <t>61201</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>K264</t>
+          <t>V345</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>041</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -954,17 +1302,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>32913</t>
+          <t>72112</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R136</t>
+          <t>Q279</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>840</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -981,21 +1329,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>72112</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>Q280</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>840</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -1008,21 +1356,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>82000</t>
+          <t>72113</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>F086</t>
+          <t>Q281</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D45</t>
+          <t>840</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -1035,21 +1383,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>51199</t>
+          <t>72113</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8842</t>
+          <t>Q282</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>089</t>
+          <t>840</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -1062,17 +1410,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>42010</t>
+          <t>72121</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D632</t>
+          <t>V290</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>616</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1089,21 +1437,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>85100</t>
+          <t>72122</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9835</t>
+          <t>Q276</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>059</t>
+          <t>616</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1116,17 +1464,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>90421</t>
+          <t>72123</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>W939</t>
+          <t>Q277</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>616</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1135,50 +1483,6 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>left_only</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>90240</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>W015</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>549</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>left_only</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>15190</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
